--- a/biology/Médecine/Bistouri/Bistouri.xlsx
+++ b/biology/Médecine/Bistouri/Bistouri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un bistouri, aussi appelé scalpel, est un instrument utilisé en chirurgie pour faire des incisions. Il est utilisé pour les dissections (incisions). Le scalpel est souvent constitué d'un manche de fer et d'une lame non amovible en acier. On trouve également le terme de lancette.
 Un bistouri comporte un manche et une lame. La lame peut être de différentes formes (droite, courbe, en faucille…). Celles-ci sont numérotées et chacune des lames correspond à un usage différent.
@@ -513,9 +525,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1564, Ambroise Paré publie Dix livres de la chirurgie : avec le magasin des instruments nécessaires à icelle, où se trouve le premier usage connu du mot bistouri (en fait bistorie, féminin) dans le sens chirurgical[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1564, Ambroise Paré publie Dix livres de la chirurgie : avec le magasin des instruments nécessaires à icelle, où se trouve le premier usage connu du mot bistouri (en fait bistorie, féminin) dans le sens chirurgical.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Lames de bistouri</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Différents modèles de lame de bistouri sont disponibles. La forme de chaque lame permet une utilisation précise.
 Les plus usités sont :
@@ -576,7 +592,9 @@
           <t>Tenue du bistouri</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bistouri peut se tenir de deux façons :
 			Bistouri tenu comme un stylo (le plus fréquent).
@@ -609,7 +627,9 @@
           <t>Bistouri électrique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe également des bistouris électriques. Celui-ci peut être bipolaire ou monopolaire. Le courant électrique qui arrive dans l'extrémité du bistouri dissèque les tissus. Cet appareil n'incise pas si l'opérateur n'envoie pas d'impulsion électrique. L'inconvénient de l'appareil est de laisser une brûlure, raison pour laquelle il ne s'emploie pas au niveau de la peau lors de la première incision. Il est par contre extrêmement utile pour arrêter les hémorragies en cautérisant les veinules et artérioles sectionnées. L'impulsion électrique peut être transmise par l'intermédiaire d'autres instruments de chirurgie tels les pinces. La pince qui ferme une artériole saignante, reçoit l'impulsion par contact avec le bistouri électrique et cautérise l'artère qu'elle obstrue.
 </t>
